--- a/doc/dev.xlsx
+++ b/doc/dev.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>vue：安装 eslint 相关依赖</t>
   </si>
   <si>
-    <t>npm install -S koa @types/koa koa-body koa-json @types/koa-json koa-router @types/koa-router jsonwebtoken @types/jsonwebtoken @types/lodash log4js mysql @types/mysql reflect-metadata sequelize sequelize-typescript nodemon typescript ts-node</t>
+    <t>npm install -D eslint eslint-plugin-vue vue-eslint-parser @typescript-eslint/parser @typescript-eslint/eslint-plugin</t>
   </si>
   <si>
     <t>vue：eslint 配置</t>
@@ -153,6 +153,12 @@
     "vueIndentScriptAndStyle": false,
     "singleAttributePerLine": false
 }</t>
+  </si>
+  <si>
+    <t>koa：安装 koa 项目所需依赖</t>
+  </si>
+  <si>
+    <t>npm install -S koa @types/koa koa-body koa-json @types/koa-json koa-router @types/koa-router jsonwebtoken @types/jsonwebtoken @types/lodash log4js mysql @types/mysql reflect-metadata sequelize sequelize-typescript nodemon typescript ts-node</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1165,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="70" customHeight="1"/>
+    <row r="6" ht="70" customHeight="1" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="7" ht="70" customHeight="1"/>
     <row r="8" ht="70" customHeight="1"/>
     <row r="9" ht="70" customHeight="1"/>
